--- a/stocksInfo.xlsx
+++ b/stocksInfo.xlsx
@@ -43,52 +43,64 @@
     <x:t>Change</x:t>
   </x:si>
   <x:si>
-    <x:t>TSLA</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1460.70B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>5.27B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>95.63B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-</x:t>
-  </x:si>
-  <x:si>
-    <x:t>0.00%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>56,991,764</x:t>
-  </x:si>
-  <x:si>
-    <x:t>439.20</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-1.79%</x:t>
-  </x:si>
-  <x:si>
-    <x:t>LI</x:t>
-  </x:si>
-  <x:si>
-    <x:t>13.48B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>643.14M</x:t>
-  </x:si>
-  <x:si>
-    <x:t>17.73B</x:t>
-  </x:si>
-  <x:si>
-    <x:t>4,021,631</x:t>
-  </x:si>
-  <x:si>
-    <x:t>16.21</x:t>
-  </x:si>
-  <x:si>
-    <x:t>-2.58%</x:t>
+    <x:t>Bobita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>MSFT</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3414.29B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>104.91B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>293.81B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>3.56 (0.77%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>24.34%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>28,184,302</x:t>
+  </x:si>
+  <x:si>
+    <x:t>459.38</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-2.40%</x:t>
+  </x:si>
+  <x:si>
+    <x:t/>
+  </x:si>
+  <x:si>
+    <x:t>ORCL</x:t>
+  </x:si>
+  <x:si>
+    <x:t>556.27B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>15.43B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>61.02B</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1.84 (0.95%)</x:t>
+  </x:si>
+  <x:si>
+    <x:t>39.16%</x:t>
+  </x:si>
+  <x:si>
+    <x:t>22,473,160</x:t>
+  </x:si>
+  <x:si>
+    <x:t>193.61</x:t>
+  </x:si>
+  <x:si>
+    <x:t>-4.29%</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -439,13 +451,13 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:I3"/>
+  <x:dimension ref="A1:J3"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="15"/>
   <x:sheetData>
-    <x:row r="1" spans="1:9">
+    <x:row r="1" spans="1:10">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
@@ -473,63 +485,72 @@
       <x:c r="I1" s="0" t="s">
         <x:v>8</x:v>
       </x:c>
+      <x:c r="J1" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
     </x:row>
-    <x:row r="2" spans="1:9">
+    <x:row r="2" spans="1:10">
       <x:c r="A2" s="0" t="s">
-        <x:v>9</x:v>
+        <x:v>10</x:v>
       </x:c>
       <x:c r="B2" s="0" t="s">
-        <x:v>10</x:v>
+        <x:v>11</x:v>
       </x:c>
       <x:c r="C2" s="0" t="s">
-        <x:v>11</x:v>
+        <x:v>12</x:v>
       </x:c>
       <x:c r="D2" s="0" t="s">
-        <x:v>12</x:v>
+        <x:v>13</x:v>
       </x:c>
       <x:c r="E2" s="0" t="s">
-        <x:v>13</x:v>
+        <x:v>14</x:v>
       </x:c>
       <x:c r="F2" s="0" t="s">
-        <x:v>14</x:v>
+        <x:v>15</x:v>
       </x:c>
       <x:c r="G2" s="0" t="s">
-        <x:v>15</x:v>
+        <x:v>16</x:v>
       </x:c>
       <x:c r="H2" s="0" t="s">
-        <x:v>16</x:v>
+        <x:v>17</x:v>
       </x:c>
       <x:c r="I2" s="0" t="s">
-        <x:v>17</x:v>
+        <x:v>18</x:v>
+      </x:c>
+      <x:c r="J2" s="0" t="s">
+        <x:v>19</x:v>
       </x:c>
     </x:row>
-    <x:row r="3" spans="1:9">
+    <x:row r="3" spans="1:10">
       <x:c r="A3" s="0" t="s">
-        <x:v>18</x:v>
+        <x:v>20</x:v>
       </x:c>
       <x:c r="B3" s="0" t="s">
+        <x:v>21</x:v>
+      </x:c>
+      <x:c r="C3" s="0" t="s">
+        <x:v>22</x:v>
+      </x:c>
+      <x:c r="D3" s="0" t="s">
+        <x:v>23</x:v>
+      </x:c>
+      <x:c r="E3" s="0" t="s">
+        <x:v>24</x:v>
+      </x:c>
+      <x:c r="F3" s="0" t="s">
+        <x:v>25</x:v>
+      </x:c>
+      <x:c r="G3" s="0" t="s">
+        <x:v>26</x:v>
+      </x:c>
+      <x:c r="H3" s="0" t="s">
+        <x:v>27</x:v>
+      </x:c>
+      <x:c r="I3" s="0" t="s">
+        <x:v>28</x:v>
+      </x:c>
+      <x:c r="J3" s="0" t="s">
         <x:v>19</x:v>
-      </x:c>
-      <x:c r="C3" s="0" t="s">
-        <x:v>20</x:v>
-      </x:c>
-      <x:c r="D3" s="0" t="s">
-        <x:v>21</x:v>
-      </x:c>
-      <x:c r="E3" s="0" t="s">
-        <x:v>13</x:v>
-      </x:c>
-      <x:c r="F3" s="0" t="s">
-        <x:v>14</x:v>
-      </x:c>
-      <x:c r="G3" s="0" t="s">
-        <x:v>22</x:v>
-      </x:c>
-      <x:c r="H3" s="0" t="s">
-        <x:v>23</x:v>
-      </x:c>
-      <x:c r="I3" s="0" t="s">
-        <x:v>24</x:v>
       </x:c>
     </x:row>
   </x:sheetData>
